--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejo\Desktop\ProyectoTubos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DA46FF9-52FE-4557-A809-89A7A0845958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BF6609-488C-410D-B1AC-94583A3C7314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08338B57-F8E4-4AA0-AA49-AB3A5F6F8A47}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{08338B57-F8E4-4AA0-AA49-AB3A5F6F8A47}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>depositos</t>
   </si>
@@ -44,53 +44,68 @@
     <t>movimientos</t>
   </si>
   <si>
-    <t>muebles</t>
-  </si>
-  <si>
-    <t>muebles_x_deposito</t>
-  </si>
-  <si>
-    <t>pedidos</t>
-  </si>
-  <si>
-    <t>proveedores</t>
-  </si>
-  <si>
     <t>tipos_depositos</t>
   </si>
   <si>
     <t>tipos_movimientos</t>
   </si>
   <si>
-    <t>tipos_mueble</t>
-  </si>
-  <si>
     <t>tipos_usuario</t>
   </si>
   <si>
-    <t>tubos</t>
-  </si>
-  <si>
-    <t>tubos_x_deposito</t>
-  </si>
-  <si>
-    <t>tubos_x_movimiento</t>
-  </si>
-  <si>
-    <t>tubos_x_mueble</t>
-  </si>
-  <si>
-    <t>tubos_x_pedido</t>
-  </si>
-  <si>
     <t>usuarios</t>
+  </si>
+  <si>
+    <t>productos_x_formula</t>
+  </si>
+  <si>
+    <t>productos</t>
+  </si>
+  <si>
+    <t>tubos_detalle</t>
+  </si>
+  <si>
+    <t>muebles_detalle</t>
+  </si>
+  <si>
+    <t>unidades de medida</t>
+  </si>
+  <si>
+    <t>productos_x_deposito</t>
+  </si>
+  <si>
+    <t>formulas</t>
+  </si>
+  <si>
+    <t>tipos_productos</t>
+  </si>
+  <si>
+    <t>presentaciones_productos</t>
+  </si>
+  <si>
+    <t>auditoria</t>
+  </si>
+  <si>
+    <t>Tabla</t>
+  </si>
+  <si>
+    <t>Crear</t>
+  </si>
+  <si>
+    <t>Modificar</t>
+  </si>
+  <si>
+    <t>Eliminar</t>
+  </si>
+  <si>
+    <t>Listar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,16 +113,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,12 +144,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,6 +188,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,92 +524,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E014D2F7-326F-40BD-8E98-53EFA6178970}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="B17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejo\Desktop\ProyectoTubos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BF6609-488C-410D-B1AC-94583A3C7314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2505E94-0736-419C-B633-1DDDB4F4B676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{08338B57-F8E4-4AA0-AA49-AB3A5F6F8A47}"/>
+    <workbookView xWindow="20220" yWindow="0" windowWidth="8535" windowHeight="15600" xr2:uid="{08338B57-F8E4-4AA0-AA49-AB3A5F6F8A47}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,13 +696,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -716,10 +716,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -730,13 +730,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -747,13 +747,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -784,10 +784,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejo\Desktop\ProyectoTubos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2505E94-0736-419C-B633-1DDDB4F4B676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBCDE31-5AC1-4F78-83EB-0C6D2908F5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20220" yWindow="0" windowWidth="8535" windowHeight="15600" xr2:uid="{08338B57-F8E4-4AA0-AA49-AB3A5F6F8A47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08338B57-F8E4-4AA0-AA49-AB3A5F6F8A47}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>depositos</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Listar</t>
+  </si>
+  <si>
+    <t>Clase</t>
   </si>
 </sst>
 </file>
@@ -524,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E014D2F7-326F-40BD-8E98-53EFA6178970}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +538,7 @@
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -551,8 +554,11 @@
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -568,8 +574,11 @@
       <c r="E2" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,8 +594,11 @@
       <c r="E3" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -602,8 +614,11 @@
       <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -619,8 +634,11 @@
       <c r="E5" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -636,8 +654,11 @@
       <c r="E6" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -653,8 +674,11 @@
       <c r="E7" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -670,8 +694,11 @@
       <c r="E8" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -687,8 +714,11 @@
       <c r="E9" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -704,8 +734,11 @@
       <c r="E10" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -721,8 +754,11 @@
       <c r="E11" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -738,8 +774,11 @@
       <c r="E12" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -755,8 +794,11 @@
       <c r="E13" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -772,8 +814,11 @@
       <c r="E14" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +834,11 @@
       <c r="E15" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -806,8 +854,11 @@
       <c r="E16" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -821,6 +872,9 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="b">
         <v>1</v>
       </c>
     </row>
